--- a/data/hotels_by_city/Houston/Houston_shard_556.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_556.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108047-Reviews-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Rodeway-Inn-Suites-Highway-290-Northwest.h12004.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531618229758&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=71e1d1a3-7a18-4b14-b16d-cb1ba6beac33&amp;mctc=9&amp;exp_dp=55.25&amp;exp_ts=1531618230286&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,297 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r554848040-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108047</t>
+  </si>
+  <si>
+    <t>554848040</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Don't Even Bother!!!</t>
+  </si>
+  <si>
+    <t>I checked in for my four night stayed and the front desk was courteous and very helpful in explaining the area and restaurants.  However, that is where the positives ended for this hotel.  My first evening there I was on my computer working when a mouse ran across the bed.  I then saw another later that evening...phoned front desk and explained the issue.  Made a call the next day and spoke with manager who stated that he had heard the issue and was looking to resolve it.  I never saw another mouse.  This place is rather run down...old linens and bedding (with cigarette burn holes in comforter).  The breakfast is really nothing at all...never once ate it...so I don't know how it was...but there was really nothing to it.  I will not be staying at this or another Rodeway Inn in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I checked in for my four night stayed and the front desk was courteous and very helpful in explaining the area and restaurants.  However, that is where the positives ended for this hotel.  My first evening there I was on my computer working when a mouse ran across the bed.  I then saw another later that evening...phoned front desk and explained the issue.  Made a call the next day and spoke with manager who stated that he had heard the issue and was looking to resolve it.  I never saw another mouse.  This place is rather run down...old linens and bedding (with cigarette burn holes in comforter).  The breakfast is really nothing at all...never once ate it...so I don't know how it was...but there was really nothing to it.  I will not be staying at this or another Rodeway Inn in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r404980750-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404980750</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Excellent Value for its Class</t>
+  </si>
+  <si>
+    <t>First, this is not a 4 or 5 star accommodation.  But, neither will you paying almost $200 per night for your room.  I will be basing this review on my family's experience from our two different, recent stays.  The property is very clean, no trash anywhere outside on the grounds that it owns.  The property is nicely landscaped, and the exterior looks extremely well, for being as close to the highway that it is.  Our room appeared to be freshly painted, and everything worked properly.  We didn't use the small pool, but it appeared to be clean and well maintained.  The breakfast was a basic continental breakfast, as is a nice touch for this level of accommodations. Breakfast include two types of cereal, several types of pastries, make your own waffles, and yogurt.  For any who might say they don't offer any "proteins" at breakfast, yogurt is a protein.  The breakfast room was much larger than others that you'd find at similar "budget" hotels.  The employees we interacted with were pleasant, and efficient.  If you need to go into Houston, the hotel is very close to a main route that goes into Houston.  A's to the neighborhood, my family and I felt safe.  It is in an "industrial" type area.  There is a fenced, empty lot adjacent to the property.  The only "con" would be, that there aren't any restaurants or stores within any reasonable walking distance.  Having said that,...First, this is not a 4 or 5 star accommodation.  But, neither will you paying almost $200 per night for your room.  I will be basing this review on my family's experience from our two different, recent stays.  The property is very clean, no trash anywhere outside on the grounds that it owns.  The property is nicely landscaped, and the exterior looks extremely well, for being as close to the highway that it is.  Our room appeared to be freshly painted, and everything worked properly.  We didn't use the small pool, but it appeared to be clean and well maintained.  The breakfast was a basic continental breakfast, as is a nice touch for this level of accommodations. Breakfast include two types of cereal, several types of pastries, make your own waffles, and yogurt.  For any who might say they don't offer any "proteins" at breakfast, yogurt is a protein.  The breakfast room was much larger than others that you'd find at similar "budget" hotels.  The employees we interacted with were pleasant, and efficient.  If you need to go into Houston, the hotel is very close to a main route that goes into Houston.  A's to the neighborhood, my family and I felt safe.  It is in an "industrial" type area.  There is a fenced, empty lot adjacent to the property.  The only "con" would be, that there aren't any restaurants or stores within any reasonable walking distance.  Having said that, we found it best to eat before we went to the motel for the night.  Alternatively, you could stop and pick up items at a grocery store beforehand, as the room includes a micro fridge and microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>First, this is not a 4 or 5 star accommodation.  But, neither will you paying almost $200 per night for your room.  I will be basing this review on my family's experience from our two different, recent stays.  The property is very clean, no trash anywhere outside on the grounds that it owns.  The property is nicely landscaped, and the exterior looks extremely well, for being as close to the highway that it is.  Our room appeared to be freshly painted, and everything worked properly.  We didn't use the small pool, but it appeared to be clean and well maintained.  The breakfast was a basic continental breakfast, as is a nice touch for this level of accommodations. Breakfast include two types of cereal, several types of pastries, make your own waffles, and yogurt.  For any who might say they don't offer any "proteins" at breakfast, yogurt is a protein.  The breakfast room was much larger than others that you'd find at similar "budget" hotels.  The employees we interacted with were pleasant, and efficient.  If you need to go into Houston, the hotel is very close to a main route that goes into Houston.  A's to the neighborhood, my family and I felt safe.  It is in an "industrial" type area.  There is a fenced, empty lot adjacent to the property.  The only "con" would be, that there aren't any restaurants or stores within any reasonable walking distance.  Having said that,...First, this is not a 4 or 5 star accommodation.  But, neither will you paying almost $200 per night for your room.  I will be basing this review on my family's experience from our two different, recent stays.  The property is very clean, no trash anywhere outside on the grounds that it owns.  The property is nicely landscaped, and the exterior looks extremely well, for being as close to the highway that it is.  Our room appeared to be freshly painted, and everything worked properly.  We didn't use the small pool, but it appeared to be clean and well maintained.  The breakfast was a basic continental breakfast, as is a nice touch for this level of accommodations. Breakfast include two types of cereal, several types of pastries, make your own waffles, and yogurt.  For any who might say they don't offer any "proteins" at breakfast, yogurt is a protein.  The breakfast room was much larger than others that you'd find at similar "budget" hotels.  The employees we interacted with were pleasant, and efficient.  If you need to go into Houston, the hotel is very close to a main route that goes into Houston.  A's to the neighborhood, my family and I felt safe.  It is in an "industrial" type area.  There is a fenced, empty lot adjacent to the property.  The only "con" would be, that there aren't any restaurants or stores within any reasonable walking distance.  Having said that, we found it best to eat before we went to the motel for the night.  Alternatively, you could stop and pick up items at a grocery store beforehand, as the room includes a micro fridge and microwave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r396362258-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396362258</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>Average accommodations for a hotel of this type.  I did not find the people to be very friendly at check in and check out.  They were not helpful in finding the ice machine either.  The location is a little freaky because it is on a dead end street near the freeway.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r319539201-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319539201</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>The hotel isn't so bad, good customer care,Devika defiantly looked after us. So many things to do around the hotel.My friends and I really enjoyed. Quiet and peaceful vicinity.Worthwhile stay in Houston. ☺☺</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r286962205-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286962205</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The room was great as well as the location. The breakfast was decent as well as the price. Most important the manager could not do enough to go out of his way to make you feel welcomed. I would stay there anytime that I'm in Houston again.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r272780426-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272780426</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Not that great.</t>
+  </si>
+  <si>
+    <t>My stay was during early May of 2015. Two days before my reservation, I wanted to cancel so that I could get another motel closer to my appointment. The lady said that I could not cancel within 15 days of the reservation! When I asked where was that on their website, she said that it's not on the website but on the confirmation letter I received AFTER I booked my reservation. Again I asked why, and she replied, "I don't know. I just work here", which is why I was asking HER (because she worked there). The room itself was ok, but I couldn't believe that there was no mention of the long policy. The website originally said that I had up until 4pm on the day of arrival to cancel, but I couldn't understand why was there a change and why was it not clarified BEFORE I booked.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My stay was during early May of 2015. Two days before my reservation, I wanted to cancel so that I could get another motel closer to my appointment. The lady said that I could not cancel within 15 days of the reservation! When I asked where was that on their website, she said that it's not on the website but on the confirmation letter I received AFTER I booked my reservation. Again I asked why, and she replied, "I don't know. I just work here", which is why I was asking HER (because she worked there). The room itself was ok, but I couldn't believe that there was no mention of the long policy. The website originally said that I had up until 4pm on the day of arrival to cancel, but I couldn't understand why was there a change and why was it not clarified BEFORE I booked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r224169701-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224169701</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>The rodeway inn at sSherwood lane and hwy 200 in NW HOUSTON is always a bargain. We use to stay at the marriott courtyard at TC JESTER and 610 N and always loved it till they doubled the price for no reason., just couldn't justify the price for what we were getting. I guess they think Marriot would justify it but not us. So we drove on down the road to the rodewY inn on Sherwood lane and 200. It's not right on the freeway but half a block away. We got us the same room we had been getting at the marriott well rather a handicap room with two comfortable double beds a nice big bathroom with hand rails.  Looks like new carpet and very quiet hotel. The beds were awesome the staff was helpful and friendly. We arrived in houston about 1130 about two hours sooner and they let us checking early   Don't let names of laces scare you away from good. Bargain. If you blindfolded me a put me in the rodeway room I wouldn't be able to tell the difference from the marriot courtyard. So with the money we saved we got to enjoy some really nice restaurants. Thank you for a wonderful weekend, we will pass the word around and surely be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>The rodeway inn at sSherwood lane and hwy 200 in NW HOUSTON is always a bargain. We use to stay at the marriott courtyard at TC JESTER and 610 N and always loved it till they doubled the price for no reason., just couldn't justify the price for what we were getting. I guess they think Marriot would justify it but not us. So we drove on down the road to the rodewY inn on Sherwood lane and 200. It's not right on the freeway but half a block away. We got us the same room we had been getting at the marriott well rather a handicap room with two comfortable double beds a nice big bathroom with hand rails.  Looks like new carpet and very quiet hotel. The beds were awesome the staff was helpful and friendly. We arrived in houston about 1130 about two hours sooner and they let us checking early   Don't let names of laces scare you away from good. Bargain. If you blindfolded me a put me in the rodeway room I wouldn't be able to tell the difference from the marriot courtyard. So with the money we saved we got to enjoy some really nice restaurants. Thank you for a wonderful weekend, we will pass the word around and surely be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r210225099-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210225099</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>DON'T STAY AT THIS HOTEL!!!!!!</t>
+  </si>
+  <si>
+    <t>My fiance,  and I stayed at this hoter for approximately 4 days. The first day, we had a good night's sleep. The second night,  we slept well also, but when we woke up, and started our day, I began ITCHING!!, and kept on up until this very day. My fiance didn't notice any bites on him until we were already home. It was so bad, I had to go to er due to the bites getting INFECTED!!!! I called them and asked if  they had any complaints in  these regards, they said they haven't heard anything yet, but my docter, an several websites confirmed  that they  DO EXIST!,,,,,I will never stay there again, and wouldn't recommend this BED INFESTED HOTEL TO ANYONE!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>My fiance,  and I stayed at this hoter for approximately 4 days. The first day, we had a good night's sleep. The second night,  we slept well also, but when we woke up, and started our day, I began ITCHING!!, and kept on up until this very day. My fiance didn't notice any bites on him until we were already home. It was so bad, I had to go to er due to the bites getting INFECTED!!!! I called them and asked if  they had any complaints in  these regards, they said they haven't heard anything yet, but my docter, an several websites confirmed  that they  DO EXIST!,,,,,I will never stay there again, and wouldn't recommend this BED INFESTED HOTEL TO ANYONE!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r186164150-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186164150</t>
+  </si>
+  <si>
+    <t>11/28/2013</t>
+  </si>
+  <si>
+    <t>Bed Bugs!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We found bed bugs in our beds! Do not stay here! Everything looked fine at first until you lay down to go to bed.   We woke up to the bed bugs biting us and after further inspection they were all over both beds.   Management offered to move us to another room but we were scared they were there as well.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r154206519-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154206519</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Much better than you'd expect for the price but you get what you pay for</t>
+  </si>
+  <si>
+    <t>The hotel is in a somewhat odd location near 290 but accessible by backroads as well.  It is far enough away from the road that it's very quiet.  There is not much in the way of amenities in walking distance so you'd better have a car.  There's a convenience store on the corner of Mangum and Sherwood that works in a pinch.The people at the front desk are some of the nicest you'll ever come across in this line of work.  They are very accommodating to any requests and seemed sincerely apologetic with a couple of minor issues I had while there.  In fact, due to their fine treatment and prompt response I'd consider staying here again.  The hotel itself is not much -- exterior staircase leading to generic rooms but they do include a fridge, microwave and LED TV.  There is a small table suitable for doing work with your laptop and the heat/AC worked well.  The place could stand a coat of paint and some new carpeting, but it appears very well maintained as the sheets were spotlessly clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>The hotel is in a somewhat odd location near 290 but accessible by backroads as well.  It is far enough away from the road that it's very quiet.  There is not much in the way of amenities in walking distance so you'd better have a car.  There's a convenience store on the corner of Mangum and Sherwood that works in a pinch.The people at the front desk are some of the nicest you'll ever come across in this line of work.  They are very accommodating to any requests and seemed sincerely apologetic with a couple of minor issues I had while there.  In fact, due to their fine treatment and prompt response I'd consider staying here again.  The hotel itself is not much -- exterior staircase leading to generic rooms but they do include a fridge, microwave and LED TV.  There is a small table suitable for doing work with your laptop and the heat/AC worked well.  The place could stand a coat of paint and some new carpeting, but it appears very well maintained as the sheets were spotlessly clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r143062679-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143062679</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>update needed</t>
+  </si>
+  <si>
+    <t>Wallpaper, bathroom- just about everything could use an update.  The vacuum cleaner does not get in the corners or edges and it showed in our room.  There was an unpleasant smell in our room every time we walked in.  I ended up buying a plug-in deodorizer to help with that.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r134941730-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134941730</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>Good motel</t>
+  </si>
+  <si>
+    <t>Very kind and friendly manager who showed us the room before booking. He made our stay very good. Clean room. Breakfast simply, but okay. I'd stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r64653210-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>64653210</t>
+  </si>
+  <si>
+    <t>04/23/2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r6844095-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6844095</t>
+  </si>
+  <si>
+    <t>02/26/2007</t>
+  </si>
+  <si>
+    <t>Not Good!!</t>
+  </si>
+  <si>
+    <t>Old room, front desk personnel did not know how to extend my stay, iron was dirty and almost ruined my clothes, bed was uncomfortable as were the pillows, door did not seal properly, and the floor has low spots that feel like I am going to fall through.</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r5502295-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5502295</t>
+  </si>
+  <si>
+    <t>07/23/2006</t>
+  </si>
+  <si>
+    <t>Don't stay</t>
+  </si>
+  <si>
+    <t>I checked in but did not stay. Doors open to the outside, and the door was not tight.... daylight could be seen all around the door. It seemed a litle loose, and did not close all the way automatically. Property was old, with some minor renovations (carpet). Ok, I thought, I might be able to handle this for five nights. But then, I pulled back the bed linens, and the sheets were full of holes and DIRTY. (Went to Quality Suites by airport, and am very pleased.)</t>
+  </si>
+  <si>
+    <t>June 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +832,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +864,1018 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_556.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_556.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r598646440-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108047</t>
+  </si>
+  <si>
+    <t>598646440</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Not 4 star</t>
+  </si>
+  <si>
+    <t>The Choice Hotel app rated this a 4.  Nope. It’s maybe a 2.  Doesn’t look like a very well-maintained motel but it looks like they are painting and trying to improve. We will stay elsewhere tomorrow night.  Nightstand is pretty beat up and I’m not sure that lock is going to hold.  We will try the chairs against the door at bedtime!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r571779836-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571779836</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Very run down.</t>
+  </si>
+  <si>
+    <t>The first room the tv did not work then the handle came off in my hand. Got another room that was just as bad. Not very clean. Need lots of repairs. The staff is very friendly and tried to be helpful but were not able to assist us. No coffee machine in the room. Would not have a shower as it did not look safe. Lamp shade torn. Plug for the light did not look safe. Just needed a lot of repairs in the room. Breakfast was okay, basic. Location is not very good. All in all there was too much construction in Houston. It was very difficult to get around.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>The first room the tv did not work then the handle came off in my hand. Got another room that was just as bad. Not very clean. Need lots of repairs. The staff is very friendly and tried to be helpful but were not able to assist us. No coffee machine in the room. Would not have a shower as it did not look safe. Lamp shade torn. Plug for the light did not look safe. Just needed a lot of repairs in the room. Breakfast was okay, basic. Location is not very good. All in all there was too much construction in Houston. It was very difficult to get around.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r554848040-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>108047</t>
-  </si>
-  <si>
     <t>554848040</t>
   </si>
   <si>
@@ -225,6 +267,39 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r388723770-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388723770</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Not a 5 star hotel, but it gets 5 stars from us!</t>
+  </si>
+  <si>
+    <t>After 8 hours of flying into IAH, we stayed here for one night.  The lady who checked us in was very friendly and helpful.  We got an upstairs room and it was quiet the entire stay (12 hours).  Free wifi worked great, all the appliances and furniture were clean and not old.  King bed was really good with 5 fluffy pillows.  Tv had cable and 3  HBO's.  It was also very clean and roomy.  Recently painted.  Breakfast was barely even the basics.  Pool is tiny.  We give it 5 stars simply because there's nothing to complain about.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r347983983-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347983983</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>A nice, clean surprise!</t>
+  </si>
+  <si>
+    <t>We stayed overnight on a Saturday.  Both clerks we encountered were very friendly.  Lobby and room were clean with minimal cosmetic negatives.  Room was clean and a good size with micro, fridge, coffee maker, iron and board, dresser, night stands table with a love seat, good lighting, great shower, comfy bed and limited cable with HBO.  It was quiet and felt safe.  Didn't try breakfast or pool.  A little hard to find, and I got a first floor when I had asked for upstairs, but this was good enough to stay in again, and we will.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r319539201-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -237,7 +312,7 @@
     <t>Great location</t>
   </si>
   <si>
-    <t>The hotel isn't so bad, good customer care,Devika defiantly looked after us. So many things to do around the hotel.My friends and I really enjoyed. Quiet and peaceful vicinity.Worthwhile stay in Houston. ☺☺</t>
+    <t xml:space="preserve">The hotel isn't so bad, good customer care,Devika defiantly looked after us. So many things to do around the hotel.My friends and I really enjoyed. Quiet and peaceful vicinity.Worthwhile stay in Houston. </t>
   </si>
   <si>
     <t>October 2015</t>
@@ -285,6 +360,45 @@
     <t>My stay was during early May of 2015. Two days before my reservation, I wanted to cancel so that I could get another motel closer to my appointment. The lady said that I could not cancel within 15 days of the reservation! When I asked where was that on their website, she said that it's not on the website but on the confirmation letter I received AFTER I booked my reservation. Again I asked why, and she replied, "I don't know. I just work here", which is why I was asking HER (because she worked there). The room itself was ok, but I couldn't believe that there was no mention of the long policy. The website originally said that I had up until 4pm on the day of arrival to cancel, but I couldn't understand why was there a change and why was it not clarified BEFORE I booked.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r272385825-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272385825</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>Clean but maybe not next time</t>
+  </si>
+  <si>
+    <t>Hotel is right off 290, but with construction you have to do a go around if coming from the East side of town. Clean but need remodel, really a motel feel. When I checked out the agent said my bill was sent to me via email, alas  four days later I have to contact Choice hotels to get my receipt</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r250497131-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250497131</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Great value and incredibly friendly</t>
+  </si>
+  <si>
+    <t>I was thrilled with a price I found online, so I decided to stay here for 3 nights.  Free breakfast each morning (mostly carbs and sweets, but still free) and incredibly clean.  My room was pretty big, beautiful TV, and they serviced it every day even though I was staying multiple days.  I saw a small pool, which was closed when I was available to go use it but that's life.  The person who checked me in had recommendations for where to go for dinner, and even had a menu for me to look at.  There was a computer with internet in the lobby I borrowed for an hour or so and a super comfy couch there to wait for my ride to my seminar.  Not the fanciest, but you get what you pay for and I was happy it was so very clean.  I did hear the train from my room, as you would hear throughout most of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was thrilled with a price I found online, so I decided to stay here for 3 nights.  Free breakfast each morning (mostly carbs and sweets, but still free) and incredibly clean.  My room was pretty big, beautiful TV, and they serviced it every day even though I was staying multiple days.  I saw a small pool, which was closed when I was available to go use it but that's life.  The person who checked me in had recommendations for where to go for dinner, and even had a menu for me to look at.  There was a computer with internet in the lobby I borrowed for an hour or so and a super comfy couch there to wait for my ride to my seminar.  Not the fanciest, but you get what you pay for and I was happy it was so very clean.  I did hear the train from my room, as you would hear throughout most of Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r224169701-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -342,6 +456,45 @@
     <t xml:space="preserve">We found bed bugs in our beds! Do not stay here! Everything looked fine at first until you lay down to go to bed.   We woke up to the bed bugs biting us and after further inspection they were all over both beds.   Management offered to move us to another room but we were scared they were there as well.   </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r174397795-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174397795</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Surprise in the City!</t>
+  </si>
+  <si>
+    <t>This hotel is strategically placed if you need access to NW Houston or the Galleria area.  Clean, fresh appearance with excellent customer service.  A real find at the price quoted.  The only aspect that disappointed me was the malfunction of the vending machine and the minimal breakfast offerings.  All in all it was a surprise in the city far exceeding my expectations at the room rate charged.  I would not hesitate to recommend this to those visiting west Houston.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r166199657-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166199657</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>New furniture in quiet, large rooms</t>
+  </si>
+  <si>
+    <t>I was surprised that I could find such a nice, large, clean room with all new furniture at such a competitive price. My room even had a microwave and refrigerator, plus a king size bed. The location was near family I was visiting, plus it was convenient to highway 290 and Loop 610.  The room was quiet even though it was near the freeway. The outdoor pool was very nice, too. The waffles were good and the coffee was the BEST I've had outside of Starbucks at any hotel. The breakfast room was clean with lots of windows and nice furniture.  I had trouble connecting to the internet and there was no fruit at the breakfast.  I will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I was surprised that I could find such a nice, large, clean room with all new furniture at such a competitive price. My room even had a microwave and refrigerator, plus a king size bed. The location was near family I was visiting, plus it was convenient to highway 290 and Loop 610.  The room was quiet even though it was near the freeway. The outdoor pool was very nice, too. The waffles were good and the coffee was the BEST I've had outside of Starbucks at any hotel. The breakfast room was clean with lots of windows and nice furniture.  I had trouble connecting to the internet and there was no fruit at the breakfast.  I will stay here again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r154206519-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -396,6 +549,42 @@
     <t>Very kind and friendly manager who showed us the room before booking. He made our stay very good. Clean room. Breakfast simply, but okay. I'd stay here again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r119441946-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119441946</t>
+  </si>
+  <si>
+    <t>10/18/2011</t>
+  </si>
+  <si>
+    <t>Happily stayed several times.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times and it's pretty reliable. Sunil the gentleman at the front desk is very nice and accomodating. He always sets me up in the room that I want which is very clean and super accessible. The breakfast is basic and well stocked. It's a great location within driving distance to several restaurants and right off of 290. There is a lot going on in the area. I'll be back!!!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r81404650-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>81404650</t>
+  </si>
+  <si>
+    <t>09/28/2010</t>
+  </si>
+  <si>
+    <t>Not so Great</t>
+  </si>
+  <si>
+    <t>This is not one of the better Comfort Suites I have been to and I travel quite a bit. The front desk staff really did not seem to know what they were doing at check in and could not give me directions or mapquest them for me either.  The room had a bad smell to it and the furniture in it was broken down. Luckily I was mainly there to sleep since I arrived late. Did not get to take in the breakfast because I had to leave but did not look like it was very good.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r64653210-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
   </si>
   <si>
@@ -439,6 +628,21 @@
   </si>
   <si>
     <t>June 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108047-r3276395-Rodeway_Inn_Suites_Hwy_290_NW-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3276395</t>
+  </si>
+  <si>
+    <t>03/15/2005</t>
+  </si>
+  <si>
+    <t>Good Location and Value</t>
+  </si>
+  <si>
+    <t>Very quiet area.  Numerous restaurants close by.  Very nice staff.  The breakfast bar needed addtl items, not much of a selection.  Overall, would stay here again.</t>
   </si>
 </sst>
 </file>
@@ -981,25 +1185,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1015,7 +1213,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1024,37 +1222,37 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1062,7 +1260,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1078,7 +1276,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1087,34 +1285,34 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>3</v>
@@ -1125,7 +1323,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1162,7 +1360,7 @@
         <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>74</v>
@@ -1171,18 +1369,24 @@
         <v>75</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1198,7 +1402,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1207,37 +1411,37 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1245,7 +1449,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1261,7 +1465,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1270,37 +1474,37 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1308,7 +1512,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1324,7 +1528,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1333,39 +1537,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>92</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>93</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1381,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1390,49 +1598,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>98</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>100</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1448,7 +1646,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1457,37 +1655,45 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>105</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>106</v>
       </c>
-      <c r="L10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1503,7 +1709,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1512,41 +1718,37 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
         <v>109</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>110</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>111</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>112</v>
       </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1554,7 +1756,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1570,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1579,37 +1781,33 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
         <v>116</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>117</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>118</v>
       </c>
-      <c r="L12" t="s">
-        <v>119</v>
-      </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -1621,7 +1819,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -1637,7 +1835,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1646,33 +1844,33 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>123</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>124</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>125</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -1684,7 +1882,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1700,7 +1898,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1709,40 +1907,40 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
       <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1757,7 +1955,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1766,34 +1964,34 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
         <v>3</v>
@@ -1808,7 +2006,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -1824,7 +2022,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1833,49 +2031,754 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
-      <c r="N16" t="s">
-        <v>140</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
         <v>1</v>
       </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31009</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
